--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\task-solve-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43896634-2CA6-4D81-92A7-E8BE6E1BB77D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF1664B-4FAC-45BC-A6F7-7897F1DC4153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9090" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7290" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДПО" sheetId="1" r:id="rId1"/>
@@ -607,16 +607,6 @@
   </si>
   <si>
     <t>Повышение квалификации
-19.10–22.10
-ИАС 202</t>
-  </si>
-  <si>
-    <t>Повышение квалификации
-09.11–12.11
-ИАС 202</t>
-  </si>
-  <si>
-    <t>Повышение квалификации
 13.01–14.01
 ауд. 414Б
 Повышение квалификации
@@ -1482,6 +1472,16 @@
   <si>
     <t>Повышение квалификации
 12.03–13.03 ауд. ИАС 202</t>
+  </si>
+  <si>
+    <t>Повышение квалификации
+19.10–22.10
+ауд. ИАС 202</t>
+  </si>
+  <si>
+    <t>Повышение квалификации
+09.11–12.11
+ауд. ИАС 202</t>
   </si>
 </sst>
 </file>
@@ -1778,30 +1778,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,6 +1805,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1837,6 +1828,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,11 +2255,11 @@
   </sheetPr>
   <dimension ref="A1:DI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="U19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="CP28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
+      <selection pane="bottomRight" activeCell="CY20" sqref="CY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,148 +2378,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:113" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="29"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="10"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="46"/>
       <c r="AR1" s="18"/>
-      <c r="AS1" s="27" t="s">
+      <c r="AS1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="29"/>
-      <c r="BA1" s="27" t="s">
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="46"/>
+      <c r="BA1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="29"/>
-      <c r="BI1" s="27" t="s">
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="46"/>
+      <c r="BI1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="29"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="45"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="46"/>
       <c r="BR1" s="18"/>
-      <c r="BS1" s="27" t="s">
+      <c r="BS1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="29"/>
-      <c r="CA1" s="27" t="s">
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="45"/>
+      <c r="BY1" s="46"/>
+      <c r="CA1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="29"/>
+      <c r="CB1" s="45"/>
+      <c r="CC1" s="45"/>
+      <c r="CD1" s="45"/>
+      <c r="CE1" s="45"/>
+      <c r="CF1" s="45"/>
+      <c r="CG1" s="46"/>
       <c r="CH1" s="10"/>
-      <c r="CI1" s="27" t="s">
+      <c r="CI1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="29"/>
+      <c r="CJ1" s="45"/>
+      <c r="CK1" s="45"/>
+      <c r="CL1" s="45"/>
+      <c r="CM1" s="45"/>
+      <c r="CN1" s="45"/>
+      <c r="CO1" s="45"/>
+      <c r="CP1" s="45"/>
+      <c r="CQ1" s="46"/>
       <c r="CR1" s="18"/>
-      <c r="CS1" s="27" t="s">
+      <c r="CS1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CT1" s="28"/>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="29"/>
+      <c r="CT1" s="45"/>
+      <c r="CU1" s="45"/>
+      <c r="CV1" s="45"/>
+      <c r="CW1" s="45"/>
+      <c r="CX1" s="45"/>
+      <c r="CY1" s="46"/>
       <c r="CZ1" s="10"/>
-      <c r="DA1" s="27" t="s">
+      <c r="DA1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28"/>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="29"/>
+      <c r="DB1" s="45"/>
+      <c r="DC1" s="45"/>
+      <c r="DD1" s="45"/>
+      <c r="DE1" s="45"/>
+      <c r="DF1" s="45"/>
+      <c r="DG1" s="45"/>
+      <c r="DH1" s="45"/>
+      <c r="DI1" s="46"/>
     </row>
     <row r="2" spans="1:113" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="I2" s="10"/>
@@ -2621,268 +2621,268 @@
       <c r="DI2" s="10"/>
     </row>
     <row r="3" spans="1:113" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="30" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="23"/>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="30" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="30" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="30" t="s">
+      <c r="AC3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="30" t="s">
+      <c r="AE3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="30" t="s">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AI3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AM3" s="30" t="s">
+      <c r="AM3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="30" t="s">
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AQ3" s="30" t="s">
+      <c r="AQ3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="30" t="s">
+      <c r="AS3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AU3" s="30" t="s">
+      <c r="AU3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="30" t="s">
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AY3" s="30" t="s">
+      <c r="AY3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="30" t="s">
+      <c r="BA3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BC3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="BE3" s="30" t="s">
+      <c r="BE3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="30" t="s">
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="BI3" s="30" t="s">
+      <c r="BI3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="30" t="s">
+      <c r="BK3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="BM3" s="30" t="s">
+      <c r="BM3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="30" t="s">
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BQ3" s="30" t="s">
+      <c r="BQ3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BS3" s="30" t="s">
+      <c r="BS3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BU3" s="30" t="s">
+      <c r="BU3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="30" t="s">
+      <c r="BV3" s="39"/>
+      <c r="BW3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BY3" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="CA3" s="30" t="s">
+      <c r="BY3" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA3" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="CF3" s="39"/>
+      <c r="CG3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CM3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="CS3" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="CV3" s="39"/>
+      <c r="CW3" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY3" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="CC3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="CE3" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF3" s="32"/>
-      <c r="CG3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="CI3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="CM3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="CS3" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="CU3" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY3" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="DA3" s="30" t="s">
+      <c r="DA3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="DC3" s="30" t="s">
+      <c r="DC3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="DE3" s="30" t="s">
+      <c r="DE3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="DF3" s="32"/>
-      <c r="DG3" s="30" t="s">
+      <c r="DF3" s="39"/>
+      <c r="DG3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="DI3" s="30" t="s">
+      <c r="DI3" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:113" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="31"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="23"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CK4" s="31"/>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CS4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="31"/>
-      <c r="CY4" s="31"/>
-      <c r="DA4" s="31"/>
-      <c r="DC4" s="31"/>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="32"/>
-      <c r="DG4" s="31"/>
-      <c r="DI4" s="31"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CU4" s="37"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DC4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="37"/>
+      <c r="DI4" s="37"/>
     </row>
     <row r="5" spans="1:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -2894,13 +2894,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:113" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="41" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="12" t="s">
@@ -2946,34 +2946,34 @@
       <c r="AI6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AM6" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU6" s="9"/>
       <c r="AV6" s="10"/>
       <c r="AW6" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BC6" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BE6" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BF6" s="10"/>
       <c r="BG6" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BH6" s="4"/>
       <c r="BI6" s="12" t="s">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="BN6" s="10"/>
       <c r="BO6" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="12" t="s">
@@ -3070,7 +3070,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
       <c r="K7" s="10"/>
@@ -3127,13 +3127,13 @@
       <c r="DI7" s="10"/>
     </row>
     <row r="8" spans="1:113" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="28">
         <v>2020</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="1"/>
       <c r="G8" s="11" t="s">
         <v>1</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AK8" s="26"/>
@@ -3240,11 +3240,11 @@
       <c r="DI8" s="10"/>
     </row>
     <row r="9" spans="1:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="K9" s="10"/>
@@ -3301,11 +3301,11 @@
       <c r="DI9" s="10"/>
     </row>
     <row r="10" spans="1:113" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="1"/>
       <c r="G10" s="11" t="s">
         <v>2</v>
@@ -3328,7 +3328,7 @@
       <c r="Z10" s="10"/>
       <c r="AC10" s="9"/>
       <c r="AE10" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF10" s="10"/>
       <c r="AG10" s="9"/>
@@ -3395,7 +3395,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="K11" s="10"/>
@@ -3451,7 +3451,7 @@
       <c r="DI11" s="10"/>
     </row>
     <row r="12" spans="1:113" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="44"/>
+      <c r="E12" s="41"/>
       <c r="G12" s="11" t="s">
         <v>115</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="BZ12" s="4"/>
     </row>
     <row r="13" spans="1:113" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="44"/>
+      <c r="E13" s="41"/>
       <c r="AX13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BH13" s="4"/>
@@ -3508,132 +3508,132 @@
       <c r="BZ13" s="4"/>
     </row>
     <row r="14" spans="1:113" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="44"/>
+      <c r="E14" s="41"/>
       <c r="G14" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M14" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="W14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Y14" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AE14" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AG14" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AE14" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG14" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="AI14" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BC14" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BE14" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BG14" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BH14" s="4"/>
       <c r="BI14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BO14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BU14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BW14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX14" s="4"/>
       <c r="BY14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BZ14" s="4"/>
       <c r="CA14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="CC14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="CE14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="CG14" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="CI14" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="CK14" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="CM14" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:113" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,36 +3645,36 @@
       <c r="BZ15" s="4"/>
     </row>
     <row r="16" spans="1:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O16" s="9"/>
       <c r="S16" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG16" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM16" s="17" t="s">
         <v>121</v>
@@ -3689,10 +3689,10 @@
       <c r="BX16" s="4"/>
       <c r="BZ16" s="4"/>
       <c r="CC16" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CE16" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CU16" s="17" t="s">
         <v>122</v>
@@ -3702,7 +3702,7 @@
       </c>
     </row>
     <row r="17" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="45"/>
+      <c r="E17" s="42"/>
       <c r="AX17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BH17" s="4"/>
@@ -3711,9 +3711,9 @@
       <c r="BZ17" s="4"/>
     </row>
     <row r="18" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="45"/>
+      <c r="E18" s="42"/>
       <c r="G18" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O18" s="9"/>
       <c r="S18" s="9"/>
@@ -3730,27 +3730,27 @@
       <c r="AX18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BE18" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BH18" s="4"/>
       <c r="BP18" s="4"/>
       <c r="BX18" s="4"/>
       <c r="BZ18" s="4"/>
       <c r="CK18" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CM18" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CO18" s="17" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="CU18" s="17" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="45"/>
+      <c r="E19" s="42"/>
       <c r="AX19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BH19" s="4"/>
@@ -3759,22 +3759,22 @@
       <c r="BZ19" s="4"/>
     </row>
     <row r="20" spans="5:111" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="45"/>
+      <c r="E20" s="42"/>
       <c r="G20" s="16" t="s">
         <v>120</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG20" s="9"/>
       <c r="AQ20" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AX20" s="4"/>
       <c r="AZ20" s="4"/>
@@ -3783,23 +3783,23 @@
       <c r="BX20" s="4"/>
       <c r="BZ20" s="4"/>
       <c r="CE20" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="CG20" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="CS20" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="CY20" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="CG20" s="17" t="s">
+      <c r="DA20" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="CS20" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY20" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="DA20" s="17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="45"/>
+      <c r="E21" s="42"/>
       <c r="AX21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BH21" s="4"/>
@@ -3808,82 +3808,82 @@
       <c r="BZ21" s="4"/>
     </row>
     <row r="22" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="45"/>
+      <c r="E22" s="42"/>
       <c r="G22" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S22" s="9"/>
       <c r="W22" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE22" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AE22" s="17" t="s">
+      <c r="AI22" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="AI22" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AW22" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="9"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BE22" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BH22" s="4"/>
       <c r="BK22" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BP22" s="4"/>
       <c r="BU22" s="9"/>
       <c r="BX22" s="4"/>
       <c r="BZ22" s="4"/>
       <c r="CC22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG22" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="CG22" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="CI22" s="9"/>
       <c r="CM22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO22" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="CO22" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="CQ22" s="9"/>
       <c r="CU22" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="CY22" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="DA22" s="9"/>
       <c r="DE22" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="45"/>
+      <c r="E23" s="42"/>
       <c r="AX23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BH23" s="4"/>
@@ -3892,113 +3892,113 @@
       <c r="BZ23" s="4"/>
     </row>
     <row r="24" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="45"/>
+      <c r="E24" s="42"/>
       <c r="G24" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="U24" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="W24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA24" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="U24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA24" s="17" t="s">
+      <c r="AC24" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="AC24" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="AG24" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK24" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AO24" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AU24" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AW24" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="9"/>
       <c r="BC24" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BG24" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BH24" s="4"/>
       <c r="BM24" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BP24" s="4"/>
       <c r="BW24" s="9"/>
       <c r="BX24" s="4"/>
       <c r="BZ24" s="4"/>
       <c r="CA24" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CE24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG24" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="CG24" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="CK24" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CO24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ24" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="CQ24" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="CS24" s="9"/>
       <c r="CU24" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CW24" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="CY24" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="CY24" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="DA24" s="9"/>
       <c r="DC24" s="9"/>
       <c r="DE24" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DG24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="45"/>
+      <c r="E25" s="42"/>
       <c r="AX25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BH25" s="4"/>
@@ -4007,64 +4007,64 @@
       <c r="BZ25" s="4"/>
     </row>
     <row r="26" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="45"/>
+      <c r="E26" s="42"/>
       <c r="G26" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="U26" s="9"/>
       <c r="Y26" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AC26" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG26" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AU26" s="9"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="9"/>
       <c r="BC26" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BG26" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BH26" s="4"/>
       <c r="BM26" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BP26" s="4"/>
       <c r="BW26" s="9"/>
       <c r="BX26" s="4"/>
       <c r="BZ26" s="4"/>
       <c r="CE26" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CK26" s="9"/>
       <c r="CO26" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CS26" s="9"/>
       <c r="CU26" s="9"/>
       <c r="CW26" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="DC26" s="9"/>
       <c r="DG26" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="45"/>
+      <c r="E27" s="42"/>
       <c r="AX27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BH27" s="4"/>
@@ -4073,55 +4073,55 @@
       <c r="BZ27" s="4"/>
     </row>
     <row r="28" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
+      <c r="E28" s="42"/>
       <c r="G28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE28" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="O28" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE28" s="17" t="s">
-        <v>170</v>
-      </c>
       <c r="AI28" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AQ28" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AZ28" s="4"/>
       <c r="BH28" s="4"/>
       <c r="BP28" s="4"/>
       <c r="BU28" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BW28" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BX28" s="4"/>
       <c r="BZ28" s="4"/>
       <c r="CC28" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="CM28" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="CY28" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="DE28" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="5:111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="45"/>
+      <c r="E29" s="42"/>
       <c r="AX29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BH29" s="4"/>
@@ -4130,40 +4130,40 @@
       <c r="BZ29" s="4"/>
     </row>
     <row r="30" spans="5:111" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="45"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BH30" s="4"/>
       <c r="BM30" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BP30" s="4"/>
       <c r="BX30" s="4"/>
       <c r="BZ30" s="4"/>
       <c r="CE30" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CQ30" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG30" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="CQ30" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="DG30" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="5:111" s="4" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="45"/>
+      <c r="E31" s="42"/>
       <c r="G31" s="19"/>
       <c r="U31" s="9"/>
       <c r="AO31" s="9"/>
@@ -4174,27 +4174,27 @@
       <c r="DG31" s="9"/>
     </row>
     <row r="32" spans="5:111" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AO32" s="9"/>
       <c r="AX32" s="4"/>
@@ -4210,7 +4210,7 @@
       <c r="DG32" s="9"/>
     </row>
     <row r="33" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="45"/>
+      <c r="E33" s="42"/>
       <c r="AX33" s="4"/>
       <c r="AZ33" s="4"/>
       <c r="BH33" s="4"/>
@@ -4219,9 +4219,9 @@
       <c r="BZ33" s="4"/>
     </row>
     <row r="34" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="45"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AX34" s="4"/>
       <c r="AZ34" s="4"/>
@@ -4230,64 +4230,64 @@
       <c r="BX34" s="4"/>
       <c r="BZ34" s="4"/>
       <c r="CA34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CC34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CE34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CG34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CI34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CK34" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="CM34" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CO34" s="9"/>
     </row>
     <row r="35" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="45"/>
+      <c r="E35" s="42"/>
       <c r="BH35" s="4"/>
       <c r="BP35" s="4"/>
       <c r="BX35" s="4"/>
       <c r="BZ35" s="4"/>
     </row>
     <row r="36" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
+      <c r="E36" s="42"/>
       <c r="G36" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AW36" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AY36" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BH36" s="4"/>
       <c r="BP36" s="4"/>
       <c r="BX36" s="4"/>
       <c r="BZ36" s="4"/>
       <c r="CM36" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="CO36" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="CQ36" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="CQ36" s="17" t="s">
+      <c r="CS36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="CU36" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="CS36" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="CU36" s="17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="37" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,97 +4297,123 @@
       <c r="BZ37" s="4"/>
     </row>
     <row r="38" spans="5:103" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="35"/>
+      <c r="E38" s="27"/>
       <c r="G38" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG38" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU38" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI38" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="AU38" s="21" t="s">
+      <c r="BK38" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM38" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE38" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="BI38" s="21" t="s">
+      <c r="CO38" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="BK38" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM38" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="CE38" s="21" t="s">
+      <c r="CY38" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="CO38" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="CY38" s="21" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="39" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="35"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="5:103" ht="147" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="35"/>
+      <c r="E40" s="27"/>
       <c r="G40" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY40" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC40" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AY40" s="21" t="s">
+      <c r="CI40" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="BC40" s="21" t="s">
+      <c r="CK40" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="CI40" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="CK40" s="21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="35"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="35"/>
+      <c r="E42" s="27"/>
       <c r="G42" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AU42" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="CM42" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="CA1:CA42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="88">
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="E16:E36"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="BS1:BY1"/>
+    <mergeCell ref="CI1:CQ1"/>
+    <mergeCell ref="CS1:CY1"/>
+    <mergeCell ref="DG3:DG4"/>
+    <mergeCell ref="CQ3:CQ4"/>
+    <mergeCell ref="CS3:CS4"/>
+    <mergeCell ref="CU3:CU4"/>
+    <mergeCell ref="CV3:CV4"/>
+    <mergeCell ref="CW3:CW4"/>
+    <mergeCell ref="CF3:CF4"/>
+    <mergeCell ref="CG3:CG4"/>
+    <mergeCell ref="CA1:CG1"/>
+    <mergeCell ref="CI3:CI4"/>
+    <mergeCell ref="CK3:CK4"/>
+    <mergeCell ref="CM3:CM4"/>
+    <mergeCell ref="CN3:CN4"/>
+    <mergeCell ref="DI3:DI4"/>
+    <mergeCell ref="DA1:DI1"/>
+    <mergeCell ref="DF3:DF4"/>
+    <mergeCell ref="CY3:CY4"/>
+    <mergeCell ref="DA3:DA4"/>
+    <mergeCell ref="DC3:DC4"/>
+    <mergeCell ref="DE3:DE4"/>
+    <mergeCell ref="CO3:CO4"/>
+    <mergeCell ref="BY3:BY4"/>
+    <mergeCell ref="CA3:CA4"/>
+    <mergeCell ref="CC3:CC4"/>
+    <mergeCell ref="CE3:CE4"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BS3:BS4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BI1:BQ1"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BA1:BG1"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="BK3:BK4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AM3:AM4"/>
@@ -4404,55 +4430,29 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BI1:BQ1"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BF4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BA1:BG1"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BS3:BS4"/>
-    <mergeCell ref="BU3:BU4"/>
-    <mergeCell ref="BV3:BV4"/>
-    <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="CO3:CO4"/>
-    <mergeCell ref="BY3:BY4"/>
-    <mergeCell ref="CA3:CA4"/>
-    <mergeCell ref="CC3:CC4"/>
-    <mergeCell ref="CE3:CE4"/>
-    <mergeCell ref="DI3:DI4"/>
-    <mergeCell ref="DA1:DI1"/>
-    <mergeCell ref="DF3:DF4"/>
-    <mergeCell ref="CY3:CY4"/>
-    <mergeCell ref="DA3:DA4"/>
-    <mergeCell ref="DC3:DC4"/>
-    <mergeCell ref="DE3:DE4"/>
-    <mergeCell ref="BS1:BY1"/>
-    <mergeCell ref="CI1:CQ1"/>
-    <mergeCell ref="CS1:CY1"/>
-    <mergeCell ref="DG3:DG4"/>
-    <mergeCell ref="CQ3:CQ4"/>
-    <mergeCell ref="CS3:CS4"/>
-    <mergeCell ref="CU3:CU4"/>
-    <mergeCell ref="CV3:CV4"/>
-    <mergeCell ref="CW3:CW4"/>
-    <mergeCell ref="CF3:CF4"/>
-    <mergeCell ref="CG3:CG4"/>
-    <mergeCell ref="CA1:CG1"/>
-    <mergeCell ref="CI3:CI4"/>
-    <mergeCell ref="CK3:CK4"/>
-    <mergeCell ref="CM3:CM4"/>
-    <mergeCell ref="CN3:CN4"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E16:E36"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
